--- a/datamining/final_data/sorted1980_nltk.xlsx
+++ b/datamining/final_data/sorted1980_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GR2"/>
+  <dimension ref="A1:FP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,992 +442,852 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>students</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>editorial</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>education</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>program</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>gifted-children</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>editorial</t>
+          <t>family</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>mathematics</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>elementary-school</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>writing</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>gifted-children</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>intellectually</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>mathematics</t>
+          <t>gcq</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>elementary-school</t>
+          <t>model</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>writing</t>
+          <t>special</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>renzulli</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>intellectually</t>
+          <t>right</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>piblication</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>longitudinal-study</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>15-year</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>piblication</t>
+          <t>mexican-american</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>matters</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>mexican-american</t>
+          <t>practical</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>issues</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>practical</t>
+          <t>future-directions</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>longitudinal-study</t>
+          <t>student</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>15-year</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>matters</t>
+          <t>exceptionally</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>school</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>issues</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>future-directions</t>
+          <t>style</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>characteristics</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>functional-model</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>gcq</t>
+          <t>counseling</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>d4</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>ever-increasing</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>smpys</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>d4</t>
+          <t>artist</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>ever-increasing</t>
+          <t>advocacy</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>females</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>renzulli</t>
+          <t>neglected</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>smpys</t>
+          <t>professional</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>profiles</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>style</t>
+          <t>proposed</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>advocacy</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>profiles</t>
+          <t>reasoning</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>females</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>neglected</t>
+          <t>ses</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>counseling</t>
+          <t>synectics</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>functional-model</t>
+          <t>today</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>today</t>
+          <t>1,593</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>synectics</t>
+          <t>profile</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>ses</t>
+          <t>high-school-students</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>music</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>artist</t>
+          <t>young-children</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>professional</t>
+          <t>psycho-educational</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>exceptionally</t>
+          <t>aptitudes</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>positions</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>reasoning</t>
+          <t>strategies</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>underachieving</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>rationale</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>proposed</t>
+          <t>person</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>high-school-students</t>
+          <t>media</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>profile</t>
+          <t>authors</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>psycho-educational</t>
+          <t>mixed</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>1,593</t>
+          <t>plight</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>positions</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>underachieving</t>
+          <t>alive</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>gifted-child</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>strategies</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>rationale</t>
+          <t>well</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>young-children</t>
+          <t>reality</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>therapy</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>very</t>
+          <t>continuing</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
+          <t>faces</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>underserved</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>individuals</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>using</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
           <t>children</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>minority</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>quota</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>system</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>music</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>minority</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>quota</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>aptitudes</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>gifted-talented</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>mentor</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>identify</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>teach</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>80s</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>academy</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>reality</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>individuals</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>using</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>mentor</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>80s</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>educating</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>therapy</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>plight</t>
+          <t>threshold</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>faces</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>continuing</t>
+          <t>review</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>intelligence</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>androgyny</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>authors</t>
+          <t>moderated</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>underserved</t>
+          <t>sanderlin</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
+          <t>reading</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>woof</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>assessing</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>warp</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>giftedness</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>super</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>saturday</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>purdue</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
           <t>implementation</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>super</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>lessons</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>million</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>overachievers</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>design</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>purdue</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>generally</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>decision</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>perceptual</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>specifically</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>perceptual</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>speeds</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>saturday</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>motor</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>generally</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>decision</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>assessing</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>gifted-child</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>movement</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>well</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>will</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>woof</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>reading</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>warp</t>
+          <t>theory</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>become</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>become</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
+          <t>developmental</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>helping</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
           <t>stage</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>creative</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>helping</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>developmental</t>
+          <t>administrative</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>theory</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>nation</t>
+          <t>career-education</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>million</t>
+          <t>community-based</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>lessons</t>
+          <t>alternative</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>placement</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>measures</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>field</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>overachievers</t>
+          <t>field-dependence</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>grades</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>moderated</t>
+          <t>high-achieving</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>identify</t>
+          <t>independence</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>low-achieving</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>threshold</t>
+          <t>self-concept</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>when</t>
+          <t>pupils</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>androgyny</t>
+          <t>differential</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>between</t>
+          <t>able</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>natural-sciences</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>sanderlin</t>
+          <t>american-college</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>teach</t>
+          <t>usage</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>them</t>
+          <t>attainment</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>eminence</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>intelligence</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>by</t>
+          <t>study</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>youths</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>evaluation</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>community-based</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>career-education</t>
+          <t>aptitude-test</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>test</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>alternative</t>
+          <t>scholastic</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>administrative</t>
+          <t>readings</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>grades</t>
+          <t>mathematically</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>self-concept</t>
+          <t>group</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>pupils</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>placement</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
-        <is>
-          <t>measures</t>
-        </is>
-      </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
-          <t>low-achieving</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>independence</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>high-achieving</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>field-dependence</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="FW1" s="1" t="inlineStr">
-        <is>
-          <t>differential</t>
-        </is>
-      </c>
-      <c r="FX1" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="FY1" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="FZ1" s="1" t="inlineStr">
-        <is>
-          <t>scholastic</t>
-        </is>
-      </c>
-      <c r="GA1" s="1" t="inlineStr">
-        <is>
-          <t>eminence</t>
-        </is>
-      </c>
-      <c r="GB1" s="1" t="inlineStr">
-        <is>
-          <t>study</t>
-        </is>
-      </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>natural-sciences</t>
-        </is>
-      </c>
-      <c r="GD1" s="1" t="inlineStr">
-        <is>
-          <t>tests</t>
-        </is>
-      </c>
-      <c r="GE1" s="1" t="inlineStr">
-        <is>
-          <t>usage</t>
-        </is>
-      </c>
-      <c r="GF1" s="1" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="GG1" s="1" t="inlineStr">
-        <is>
-          <t>youths</t>
-        </is>
-      </c>
-      <c r="GH1" s="1" t="inlineStr">
-        <is>
-          <t>readings</t>
-        </is>
-      </c>
-      <c r="GI1" s="1" t="inlineStr">
-        <is>
           <t>performance</t>
-        </is>
-      </c>
-      <c r="GJ1" s="1" t="inlineStr">
-        <is>
-          <t>mathematically</t>
-        </is>
-      </c>
-      <c r="GK1" s="1" t="inlineStr">
-        <is>
-          <t>experiences</t>
-        </is>
-      </c>
-      <c r="GL1" s="1" t="inlineStr">
-        <is>
-          <t>group</t>
-        </is>
-      </c>
-      <c r="GM1" s="1" t="inlineStr">
-        <is>
-          <t>battery</t>
-        </is>
-      </c>
-      <c r="GN1" s="1" t="inlineStr">
-        <is>
-          <t>american-college</t>
-        </is>
-      </c>
-      <c r="GO1" s="1" t="inlineStr">
-        <is>
-          <t>able</t>
-        </is>
-      </c>
-      <c r="GP1" s="1" t="inlineStr">
-        <is>
-          <t>attainment</t>
-        </is>
-      </c>
-      <c r="GQ1" s="1" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="GR1" s="1" t="inlineStr">
-        <is>
-          <t>aptitude-test</t>
         </is>
       </c>
     </row>
@@ -1439,226 +1299,226 @@
         <v>1980</v>
       </c>
       <c r="C2" t="n">
-        <v>2.37</v>
+        <v>2.01</v>
       </c>
       <c r="D2" t="n">
-        <v>2.13</v>
+        <v>1.85</v>
       </c>
       <c r="E2" t="n">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.830000000000001</v>
+        <v>1.41</v>
       </c>
       <c r="H2" t="n">
-        <v>1.79</v>
+        <v>1.31</v>
       </c>
       <c r="I2" t="n">
-        <v>1.77</v>
+        <v>1.16</v>
       </c>
       <c r="J2" t="n">
-        <v>1.57</v>
+        <v>1.05</v>
       </c>
       <c r="K2" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>0.97</v>
       </c>
       <c r="M2" t="n">
-        <v>1.27</v>
+        <v>0.96</v>
       </c>
       <c r="N2" t="n">
-        <v>1.09</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>1.08</v>
+        <v>0.85</v>
       </c>
       <c r="P2" t="n">
-        <v>1.03</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.95</v>
+        <v>0.77</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="S2" t="n">
-        <v>0.87</v>
+        <v>0.74</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="U2" t="n">
-        <v>0.78</v>
+        <v>0.71</v>
       </c>
       <c r="V2" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="W2" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="X2" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="BY2" t="n">
         <v>0.45</v>
@@ -1673,154 +1533,154 @@
         <v>0.45</v>
       </c>
       <c r="CC2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="CP2" t="n">
         <v>0.43</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CQ2" t="n">
         <v>0.43</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CR2" t="n">
         <v>0.43</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CS2" t="n">
         <v>0.43</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CT2" t="n">
         <v>0.43</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CU2" t="n">
         <v>0.43</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CV2" t="n">
         <v>0.43</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CW2" t="n">
         <v>0.43</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CX2" t="n">
         <v>0.43</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CY2" t="n">
         <v>0.43</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CZ2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="DE2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="DF2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="DG2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="DH2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="DI2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CR2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="CW2" t="n">
+      <c r="DJ2" t="n">
         <v>0.4</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="DK2" t="n">
         <v>0.4</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="DL2" t="n">
         <v>0.4</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DM2" t="n">
         <v>0.4</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DN2" t="n">
         <v>0.4</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DO2" t="n">
         <v>0.4</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DP2" t="n">
         <v>0.4</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DQ2" t="n">
         <v>0.4</v>
       </c>
-      <c r="DE2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0.37</v>
-      </c>
       <c r="DR2" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="EA2" t="n">
         <v>0.37</v>
@@ -1829,19 +1689,19 @@
         <v>0.37</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="EH2" t="n">
         <v>0.36</v>
@@ -1850,91 +1710,91 @@
         <v>0.36</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="FM2" t="n">
         <v>0.25</v>
@@ -1947,90 +1807,6 @@
       </c>
       <c r="FP2" t="n">
         <v>0.25</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0.24</v>
       </c>
     </row>
   </sheetData>
